--- a/biology/Zoologie/Athérure_malais/Athérure_malais.xlsx
+++ b/biology/Zoologie/Athérure_malais/Athérure_malais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ath%C3%A9rure_malais</t>
+          <t>Athérure_malais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atherurus macrourus
-L'Athérure malais (Atherurus macrourus), appelé aussi Athérure à longue queue[1],[2], est une espèce de mammifères, un porc-épic à queue en brosse de la famille des Hystricidae. Ce  porc-épic se rencontre dans un large partie de l'Asie, allant du sud du Golfe de Thaïlande jusqu'aux contreforts de l'Himalaya au nord et du Bangladesh, à l'ouest, jusqu'en Chine[3].
+L'Athérure malais (Atherurus macrourus), appelé aussi Athérure à longue queue est une espèce de mammifères, un porc-épic à queue en brosse de la famille des Hystricidae. Ce  porc-épic se rencontre dans un large partie de l'Asie, allant du sud du Golfe de Thaïlande jusqu'aux contreforts de l'Himalaya au nord et du Bangladesh, à l'ouest, jusqu'en Chine.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ath%C3%A9rure_malais</t>
+          <t>Athérure_malais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le porc-épic athérure malais est près de deux fois plus petit que le porc-épic de Malaisie : il mesure de 34,5 à 52,5 cm de long, tête et corps inclus, mais a en plus une longue queue de 13,9 à 22,8 cm de long.
-C'est un animal terrestre qui vit à plusieurs, jusqu'à trois individus, dans un terrier, creusé au sein des forêts de montagnes tropicales et subtropicales, de préférence dans un sous-bois dense[3].
-A près une période de gestation de 100 à 110 jours, la femelle donne naissance deux fois par an à un seul petit[3].
+C'est un animal terrestre qui vit à plusieurs, jusqu'à trois individus, dans un terrier, creusé au sein des forêts de montagnes tropicales et subtropicales, de préférence dans un sous-bois dense.
+A près une période de gestation de 100 à 110 jours, la femelle donne naissance deux fois par an à un seul petit.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ath%C3%A9rure_malais</t>
+          <t>Athérure_malais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve ainsi en Chine, Inde, Laos, Malaisie, Myanmar, Thaïlande, Vietnam, etc. Bien qu'ils n'y soient pas en danger, le nombre de ces animaux tend à diminuer par perte de leur habitat, conquis sur la forêt pour les besoins de l'agriculture itinérante[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve ainsi en Chine, Inde, Laos, Malaisie, Myanmar, Thaïlande, Vietnam, etc. Bien qu'ils n'y soient pas en danger, le nombre de ces animaux tend à diminuer par perte de leur habitat, conquis sur la forêt pour les besoins de l'agriculture itinérante.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ath%C3%A9rure_malais</t>
+          <t>Athérure_malais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèce a été décrite pour la première fois en 1758 par le naturaliste suédois Carl von Linné (1707-1778), sous le nom scientifique de Hystrix macrourus.
 Elle admet plusieurs synonymes :
